--- a/ESQUEMA DE PLAN_VILLACORTA.xlsx
+++ b/ESQUEMA DE PLAN_VILLACORTA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Villacorta\Documents\MAESTRIA_RICARDO_PALMA_URP\3_TESIS_3\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Villacorta\STORAGE\tesis_maestria_ciencia_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9AAACE-02D4-4950-A2DF-6D03DD2B80EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068D9603-7EED-4B29-8A28-3E94CFD34375}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="600" windowWidth="22920" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="16" r:id="rId1"/>
